--- a/output/chart.xlsx
+++ b/output/chart.xlsx
@@ -293,7 +293,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>780.012001991272</c:v>
+                  <c:v>1216.83923196792</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2074.30464100837</c:v>
@@ -366,11 +366,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1059424560"/>
-        <c:axId val="1059425920"/>
+        <c:axId val="-1340976576"/>
+        <c:axId val="-1340974528"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1059424560"/>
+        <c:axId val="-1340976576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -413,7 +413,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1059425920"/>
+        <c:crossAx val="-1340974528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -421,7 +421,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1059425920"/>
+        <c:axId val="-1340974528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -535,7 +535,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1059424560"/>
+        <c:crossAx val="-1340976576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -693,16 +693,13 @@
               <a:buFontTx/>
               <a:buNone/>
               <a:tabLst/>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr>
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:sysClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
@@ -726,16 +723,13 @@
               <a:buFontTx/>
               <a:buNone/>
               <a:tabLst/>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr>
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:sysClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="zh-CN" altLang="en-US"/>
@@ -848,7 +842,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>49.2195410728454</c:v>
+                  <c:v>78.5868575572967</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>945.962546110153</c:v>
@@ -902,7 +896,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>720.027421474456</c:v>
+                  <c:v>1119.95789074897</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1111.07937049865</c:v>
@@ -956,7 +950,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>10.7293715476989</c:v>
+                  <c:v>18.2673676013946</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>17.2362468242645</c:v>
@@ -975,11 +969,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="1063188528"/>
-        <c:axId val="1064972160"/>
+        <c:axId val="-1376675520"/>
+        <c:axId val="-1488295984"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1063188528"/>
+        <c:axId val="-1376675520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1022,7 +1016,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1064972160"/>
+        <c:crossAx val="-1488295984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1030,7 +1024,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1064972160"/>
+        <c:axId val="-1488295984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2500.0"/>
@@ -1082,7 +1076,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1063188528"/>
+        <c:crossAx val="-1376675520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1368,13 +1362,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>49.2195410728454</c:v>
+                  <c:v>78.5868575572967</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>720.027421474456</c:v>
+                  <c:v>1119.95789074897</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.7293715476989</c:v>
+                  <c:v>18.2673676013946</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4354,8 +4348,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="86" workbookViewId="0">
-      <selection activeCell="S20" sqref="S20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4376,7 +4370,7 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>780.01200199127197</v>
+        <v>1216.8392319679201</v>
       </c>
       <c r="D2">
         <v>2074.3046410083698</v>
@@ -4409,7 +4403,7 @@
         <v>5</v>
       </c>
       <c r="B25">
-        <v>49.219541072845402</v>
+        <v>78.586857557296696</v>
       </c>
       <c r="C25">
         <v>945.96254611015297</v>
@@ -4420,7 +4414,7 @@
         <v>6</v>
       </c>
       <c r="B26">
-        <v>720.02742147445599</v>
+        <v>1119.9578907489699</v>
       </c>
       <c r="C26">
         <v>1111.07937049865</v>
@@ -4431,7 +4425,7 @@
         <v>7</v>
       </c>
       <c r="B27">
-        <v>10.7293715476989</v>
+        <v>18.2673676013946</v>
       </c>
       <c r="C27">
         <v>17.236246824264501</v>
